--- a/2-from-excel-tables-to-sql-select/sql-tables-example.xlsx
+++ b/2-from-excel-tables-to-sql-select/sql-tables-example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\OReilly_Slides\SQL for Excel Users\2. From Excel tables to SQL Select\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Webinar - SQL for Excel Users\Resources - SQL for Excel Users\2-from-excel-tables-to-sql-select\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22989" windowHeight="9146"/>
   </bookViews>
   <sheets>
     <sheet name="before" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>SALESPERSON</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Table is renamed to office_signups</t>
   </si>
   <si>
@@ -93,10 +90,16 @@
     <t>CHIEF FINANCIAL OFFICER</t>
   </si>
   <si>
-    <t>Columns are separate references</t>
-  </si>
-  <si>
-    <t>Rows "belong" to columns</t>
+    <t>dept_times_two</t>
+  </si>
+  <si>
+    <t>Can refer to columns as a whole</t>
+  </si>
+  <si>
+    <t>Calculated columns are based directly on other columns</t>
+  </si>
+  <si>
+    <t>(see column E)</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,15 +166,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>140798</xdr:rowOff>
+      <xdr:colOff>325482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -188,8 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5532120" y="198119"/>
-          <a:ext cx="4587240" cy="3051639"/>
+          <a:off x="5497285" y="0"/>
+          <a:ext cx="4892040" cy="3086473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -212,18 +222,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="office_signups" displayName="office_signups" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="office_signups" displayName="office_signups" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="title"/>
     <tableColumn id="3" name="department_no"/>
     <tableColumn id="4" name="is_signed_up"/>
+    <tableColumn id="6" name="dept_times_two" dataDxfId="0">
+      <calculatedColumnFormula>office_signups[[#This Row],[department_no]]*2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,15 +509,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -532,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -546,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -560,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -570,11 +583,11 @@
       <c r="C5">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -588,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -602,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -616,12 +629,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -638,19 +651,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="47.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.23046875" customWidth="1"/>
+    <col min="3" max="3" width="16.07421875" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +676,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -677,8 +693,12 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -691,8 +711,12 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -705,8 +729,12 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -719,8 +747,12 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -733,8 +765,12 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -747,8 +783,12 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -761,20 +801,31 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>office_signups[[#This Row],[department_no]]*2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <f>SUM(office_signups[department_no])</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
